--- a/2017-09-08_life-table/2-excel-implementation.xlsx
+++ b/2017-09-08_life-table/2-excel-implementation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3140" windowWidth="19200" windowHeight="21140" tabRatio="700" activeTab="1"/>
+    <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="21140" tabRatio="700"/>
   </bookViews>
   <sheets>
     <sheet name="empty-life-table" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1060,7 +1060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
